--- a/public/imort-format/broker-import.xlsx
+++ b/public/imort-format/broker-import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rukon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rukon/Drive/Works/projects/alliesportalv2/allies-portal-v2/public/imort-format/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822D3071-D47C-D243-A2E0-14BDACF7348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D764E012-DB31-5B4D-B611-E42FC52959F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41740" yWindow="5140" windowWidth="28040" windowHeight="17440" xr2:uid="{BA422BAC-7DF1-F34A-9AB6-65333D131CBB}"/>
+    <workbookView xWindow="6220" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{BA422BAC-7DF1-F34A-9AB6-65333D131CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Title</t>
   </si>
@@ -55,52 +55,7 @@
     <t>City</t>
   </si>
   <si>
-    <t>Broker Full Name 1</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Rms</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>broker1@gmail.com</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Broker Full Name 2</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>Allies</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>designer@gmail.com</t>
-  </si>
-  <si>
-    <t>Jamalpur</t>
-  </si>
-  <si>
-    <t>abd</t>
-  </si>
-  <si>
     <t>Full Name *</t>
-  </si>
-  <si>
-    <t>sdfdsf</t>
-  </si>
-  <si>
-    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -479,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215D2F-B223-4E4B-B7F2-DDA42DDE4834}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +449,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -516,69 +471,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1333</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>1822</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4CDE57D0-CD5B-7842-BDE9-CF9CA5EB698E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{58953F3F-0426-1143-93D6-CE8E1B720966}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>